--- a/grdp.xlsx
+++ b/grdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Documents/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4AAF13-799B-394B-8E00-6AA8EB4FF948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA8D812-AB77-544C-AC5E-CE3FB01359DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="243">
   <si>
     <t/>
   </si>
@@ -452,9 +452,6 @@
   </si>
   <si>
     <t>광주</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>20.7</t>
@@ -1151,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10:AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1844,35 +1841,31 @@
       <c r="A7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>90</v>
@@ -1881,7 +1874,7 @@
         <v>83</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>72</v>
@@ -1905,7 +1898,7 @@
         <v>70</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>56</v>
@@ -1914,7 +1907,7 @@
         <v>81</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>40</v>
@@ -1923,16 +1916,16 @@
         <v>77</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>109</v>
       </c>
       <c r="AD7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE7" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>62</v>
@@ -1941,45 +1934,37 @@
         <v>116</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>63</v>
@@ -1994,7 +1979,7 @@
         <v>44</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>49</v>
@@ -2009,13 +1994,13 @@
         <v>48</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>60</v>
@@ -2039,10 +2024,10 @@
         <v>81</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>103</v>
@@ -2051,13 +2036,13 @@
         <v>82</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AH8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>116</v>
@@ -2068,47 +2053,21 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2119,10 +2078,10 @@
         <v>65</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>89</v>
@@ -2131,49 +2090,49 @@
         <v>83</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="AA9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AD9" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="AE9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AI9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK9" s="2" t="s">
         <v>55</v>
@@ -2181,100 +2140,44 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="AE10" s="2" t="s">
         <v>127</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>67</v>
@@ -2286,36 +2189,36 @@
         <v>73</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>114</v>
@@ -2324,7 +2227,7 @@
         <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>106</v>
@@ -2333,19 +2236,19 @@
         <v>58</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>132</v>
@@ -2357,16 +2260,16 @@
         <v>94</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>124</v>
@@ -2390,7 +2293,7 @@
         <v>115</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH11" s="2" t="s">
         <v>142</v>
@@ -2407,13 +2310,13 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>76</v>
@@ -2425,7 +2328,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>58</v>
@@ -2437,7 +2340,7 @@
         <v>54</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>52</v>
@@ -2446,7 +2349,7 @@
         <v>99</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>140</v>
@@ -2455,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>58</v>
@@ -2467,13 +2370,13 @@
         <v>77</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>130</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>80</v>
@@ -2488,31 +2391,31 @@
         <v>120</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>83</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AI12" s="2" t="s">
         <v>108</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AK12" s="2" t="s">
         <v>55</v>
@@ -2520,16 +2423,16 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>43</v>
@@ -2538,16 +2441,16 @@
         <v>137</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>51</v>
@@ -2559,7 +2462,7 @@
         <v>65</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>126</v>
@@ -2568,7 +2471,7 @@
         <v>49</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>140</v>
@@ -2580,16 +2483,16 @@
         <v>95</v>
       </c>
       <c r="U13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>112</v>
@@ -2601,7 +2504,7 @@
         <v>79</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>98</v>
@@ -2625,7 +2528,7 @@
         <v>102</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK13" s="2" t="s">
         <v>73</v>
@@ -2633,10 +2536,10 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>94</v>
@@ -2645,7 +2548,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>59</v>
@@ -2660,25 +2563,25 @@
         <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="P14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>67</v>
@@ -2687,16 +2590,16 @@
         <v>72</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>44</v>
@@ -2708,7 +2611,7 @@
         <v>86</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>54</v>
@@ -2717,13 +2620,13 @@
         <v>141</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF14" s="2" t="s">
         <v>83</v>
@@ -2732,13 +2635,13 @@
         <v>57</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI14" s="2" t="s">
         <v>116</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK14" s="2" t="s">
         <v>56</v>
@@ -2746,22 +2649,22 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>75</v>
@@ -2776,7 +2679,7 @@
         <v>111</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>135</v>
@@ -2785,22 +2688,22 @@
         <v>112</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>132</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>103</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>108</v>
@@ -2812,7 +2715,7 @@
         <v>140</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>55</v>
@@ -2821,7 +2724,7 @@
         <v>87</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>98</v>
@@ -2833,16 +2736,16 @@
         <v>122</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AH15" s="2" t="s">
         <v>102</v>
@@ -2851,7 +2754,7 @@
         <v>120</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK15" s="2" t="s">
         <v>86</v>
@@ -2859,13 +2762,13 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>125</v>
@@ -2877,16 +2780,16 @@
         <v>106</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>42</v>
@@ -2895,10 +2798,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>85</v>
@@ -2907,7 +2810,7 @@
         <v>100</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>53</v>
@@ -2931,10 +2834,10 @@
         <v>116</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>139</v>
@@ -2943,7 +2846,7 @@
         <v>141</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>119</v>
@@ -2964,7 +2867,7 @@
         <v>120</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK16" s="2" t="s">
         <v>58</v>
@@ -2972,25 +2875,25 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>141</v>
@@ -2999,7 +2902,7 @@
         <v>108</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>135</v>
@@ -3011,13 +2914,13 @@
         <v>91</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>108</v>
@@ -3032,7 +2935,7 @@
         <v>54</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>109</v>
@@ -3044,16 +2947,16 @@
         <v>103</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>109</v>
@@ -3062,22 +2965,22 @@
         <v>48</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF17" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK17" s="2" t="s">
         <v>82</v>
@@ -3085,37 +2988,37 @@
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>133</v>
@@ -3124,25 +3027,25 @@
         <v>47</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>55</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>49</v>
@@ -3154,7 +3057,7 @@
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>82</v>
@@ -3169,10 +3072,10 @@
         <v>86</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE18" s="2" t="s">
         <v>102</v>
@@ -3181,24 +3084,24 @@
         <v>141</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>82</v>
@@ -3210,7 +3113,7 @@
         <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>116</v>
@@ -3219,7 +3122,7 @@
         <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>116</v>
@@ -3228,7 +3131,7 @@
         <v>93</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>86</v>
@@ -3237,13 +3140,13 @@
         <v>57</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>48</v>
@@ -3258,10 +3161,10 @@
         <v>130</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>112</v>
@@ -3282,13 +3185,13 @@
         <v>133</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>111</v>
@@ -3297,13 +3200,13 @@
         <v>56</v>
       </c>
       <c r="AH19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="AK19" s="2" t="s">
         <v>78</v>
